--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -109,8 +109,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -127,7 +139,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="25">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -135,12 +147,24 @@
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -192,16 +216,16 @@
                   <c:v>Full</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>w/o Long Context</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>w/o Synt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>w/o Entity</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>w/o Verb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>w/o Long Context</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>w/o Synt</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>w/o Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -216,16 +240,16 @@
                   <c:v>0.861</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.843</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,16 +279,16 @@
                   <c:v>Full</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>w/o Long Context</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>w/o Synt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>w/o Entity</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>w/o Verb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>w/o Long Context</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>w/o Synt</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>w/o Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -279,16 +303,16 @@
                   <c:v>0.669</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.696</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.638</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.704</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.698</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,16 +342,16 @@
                   <c:v>Full</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>w/o Long Context</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>w/o Synt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>w/o Entity</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>w/o Verb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>w/o Long Context</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>w/o Synt</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>w/o Entity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -342,16 +366,16 @@
                   <c:v>0.765</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.7735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6605</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.7445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7735</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7645</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,7 +408,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050"/>
+              <a:defRPr sz="1050">
+                <a:latin typeface="Helvetica"/>
+                <a:cs typeface="Helvetica"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -414,7 +441,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050"/>
+              <a:defRPr sz="1050">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -433,7 +463,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400"/>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
@@ -811,7 +844,7 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -847,62 +880,62 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.85099999999999998</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D4">
-        <v>0.63800000000000001</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="0">(C4+D4)/2</f>
-        <v>0.74449999999999994</v>
+        <f>(C4+D4)/2</f>
+        <v>0.77349999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.84299999999999997</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="D5">
-        <v>0.70399999999999996</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.77349999999999997</v>
+        <f>(C5+D5)/2</f>
+        <v>0.76449999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.83099999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="D6">
-        <v>0.69799999999999995</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.76449999999999996</v>
+        <f>(C6+D6)/2</f>
+        <v>0.66049999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.625</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D7">
-        <v>0.69599999999999995</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.66049999999999998</v>
+        <f>(C7+D7)/2</f>
+        <v>0.74449999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuhongliang324/Documents/Course/11727/Coherence/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Full</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +57,12 @@
     <t>w/o Synt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
 </sst>
 </file>
 
@@ -61,14 +72,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -77,7 +88,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -86,7 +97,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -140,41 +151,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -390,16 +406,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2121044200"/>
-        <c:axId val="-2145408408"/>
+        <c:axId val="-2126496816"/>
+        <c:axId val="-2126499920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121044200"/>
+        <c:axId val="-2126496816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -413,10 +430,10 @@
                 <a:cs typeface="Helvetica"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145408408"/>
+        <c:crossAx val="-2126499920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -424,7 +441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145408408"/>
+        <c:axId val="-2126499920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -446,10 +463,10 @@
                 <a:cs typeface="Times"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121044200"/>
+        <c:crossAx val="-2126496816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -468,7 +485,7 @@
               <a:cs typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -841,18 +858,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -863,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -878,7 +895,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -889,11 +906,11 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="E4">
-        <f>(C4+D4)/2</f>
+        <f t="shared" ref="E4:E10" si="0">(C4+D4)/2</f>
         <v>0.77349999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -904,11 +921,11 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="E5">
-        <f>(C5+D5)/2</f>
+        <f t="shared" si="0"/>
         <v>0.76449999999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -919,11 +936,11 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="E6">
-        <f>(C6+D6)/2</f>
+        <f t="shared" si="0"/>
         <v>0.66049999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -934,8 +951,38 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="E7">
-        <f>(C7+D7)/2</f>
+        <f t="shared" si="0"/>
         <v>0.74449999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.996</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.96849999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.96350000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +990,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Full</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,18 +63,38 @@
   <si>
     <t>LSTM</t>
   </si>
+  <si>
+    <t>Accident</t>
+  </si>
+  <si>
+    <t>Earthquake</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Entity + Verb</t>
+  </si>
+  <si>
+    <t>Entity Only</t>
+  </si>
+  <si>
+    <t>Verb (Identity)</t>
+  </si>
+  <si>
+    <t>Verb (Similarity)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,6 +122,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +147,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -146,11 +173,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -163,6 +203,12 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -175,6 +221,12 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,11 +458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126496816"/>
-        <c:axId val="-2126499920"/>
+        <c:axId val="-2095937680"/>
+        <c:axId val="-2068696336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126496816"/>
+        <c:axId val="-2095937680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126499920"/>
+        <c:crossAx val="-2068696336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -441,7 +493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126499920"/>
+        <c:axId val="-2068696336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -466,7 +518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126496816"/>
+        <c:crossAx val="-2095937680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -501,20 +553,1129 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coherence Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accident</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entity + Verb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entity Only</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verb (Identity)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Verb (Similarity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Earthquake</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entity + Verb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entity Only</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verb (Identity)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Verb (Similarity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$15:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entity + Verb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entity Only</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verb (Identity)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Verb (Similarity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="-2067298160"/>
+        <c:axId val="-2094896832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2067298160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2094896832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2094896832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067298160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -528,6 +1689,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -858,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,6 +2176,103 @@
         <v>0.96350000000000002</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.96850000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.96350000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E17">
+        <f>(C17+D17)/2</f>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.74450000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.625</v>
+      </c>
+      <c r="D19">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="1">(C19+D19)/2</f>
+        <v>0.66049999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mid-term" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary Classification" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Full</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +84,30 @@
   </si>
   <si>
     <t>Verb (Similarity)</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Seq2Seq</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Text + POS</t>
+  </si>
+  <si>
+    <t>Text + Role</t>
+  </si>
+  <si>
+    <t>Text + POS + Role</t>
+  </si>
+  <si>
+    <t>Alignment</t>
   </si>
 </sst>
 </file>
@@ -147,7 +172,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -185,12 +210,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -209,6 +243,9 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -227,6 +264,9 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -265,7 +305,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$2</c:f>
+              <c:f>'Mid-term'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -277,7 +317,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$3:$B$7</c:f>
+              <c:f>'Mid-term'!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -300,7 +340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$3:$C$7</c:f>
+              <c:f>'Mid-term'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -328,7 +368,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$D$2</c:f>
+              <c:f>'Mid-term'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -340,7 +380,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$3:$B$7</c:f>
+              <c:f>'Mid-term'!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -363,7 +403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$3:$D$7</c:f>
+              <c:f>'Mid-term'!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -391,7 +431,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$E$2</c:f>
+              <c:f>'Mid-term'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -403,7 +443,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$3:$B$7</c:f>
+              <c:f>'Mid-term'!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -426,7 +466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$3:$E$7</c:f>
+              <c:f>'Mid-term'!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -458,11 +498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2095937680"/>
-        <c:axId val="-2068696336"/>
+        <c:axId val="-2130099136"/>
+        <c:axId val="2078618592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095937680"/>
+        <c:axId val="-2130099136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068696336"/>
+        <c:crossAx val="2078618592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -493,7 +533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068696336"/>
+        <c:axId val="2078618592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -518,7 +558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095937680"/>
+        <c:crossAx val="-2130099136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -635,7 +675,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$14</c:f>
+              <c:f>'Mid-term'!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -656,7 +696,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$15:$B$20</c:f>
+              <c:f>'Mid-term'!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -682,7 +722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$15:$C$20</c:f>
+              <c:f>'Mid-term'!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -713,7 +753,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$D$14</c:f>
+              <c:f>'Mid-term'!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -734,7 +774,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$15:$B$20</c:f>
+              <c:f>'Mid-term'!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -760,7 +800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$15:$D$20</c:f>
+              <c:f>'Mid-term'!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -791,7 +831,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$E$14</c:f>
+              <c:f>'Mid-term'!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -812,7 +852,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$15:$B$20</c:f>
+              <c:f>'Mid-term'!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -838,7 +878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$15:$E$20</c:f>
+              <c:f>'Mid-term'!$E$15:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -874,11 +914,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2067298160"/>
-        <c:axId val="-2094896832"/>
+        <c:axId val="-2126957712"/>
+        <c:axId val="-2126954688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067298160"/>
+        <c:axId val="-2126957712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094896832"/>
+        <c:crossAx val="-2126954688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094896832"/>
+        <c:axId val="-2126954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1037,7 +1077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067298160"/>
+        <c:crossAx val="-2126957712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2051,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,4 +2319,236 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="E2" s="1">
+        <f>(C2+D2)/2</f>
+        <v>0.96849999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E15" si="0">(C3+D3)/2</f>
+        <v>0.96350000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74449999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.625</v>
+      </c>
+      <c r="D6">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66049999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <v>0.876</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.91</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -2326,7 +2326,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2469,9 +2469,15 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.89300000000000002</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84050000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2479,9 +2485,15 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.89500000000000002</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.83050000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2489,9 +2501,15 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="C11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.876</v>
+      </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.82950000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,9 +2535,15 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="C13">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.92700000000000005</v>
+      </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2527,9 +2551,15 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="C14">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.92500000000000004</v>
+      </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,9 +2567,15 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
+      <c r="C15">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.92500000000000004</v>
+      </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.86050000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mid-term" sheetId="1" r:id="rId1"/>
     <sheet name="Binary Classification" sheetId="2" r:id="rId2"/>
+    <sheet name="Paragraph Reconstruction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Full</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,8 +173,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -224,7 +233,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -246,6 +255,10 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -267,6 +280,10 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2325,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2502,14 +2519,14 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.78300000000000003</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="D11">
-        <v>0.876</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0.82950000000000002</v>
+        <v>0.84950000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2568,14 +2585,14 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>0.79600000000000004</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="D15">
-        <v>0.92500000000000004</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0.86050000000000004</v>
+        <v>0.88049999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2586,5 +2603,172 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <f>(C2+D2)/2</f>
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E9" si="0">(C3+D3)/2</f>
+        <v>0.60050000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.623</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60749999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62949999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0.628</v>
+      </c>
+      <c r="D7">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63050000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64850000000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>